--- a/examples/javascript/svg/SVGNavigationTiming/SVGNavigationTiming/Design/PerformanceResourceTimingData2.xlsx
+++ b/examples/javascript/svg/SVGNavigationTiming/SVGNavigationTiming/Design/PerformanceResourceTimingData2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="400" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="400" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="ApplicationPerformance" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="J1">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <charset val="1"/>
+            <family val="2"/>
+            <color rgb="00000000"/>
+            <sz val="11"/>
+          </rPr>
+          <t xml:space="preserve">Table name ?ApplicationPerformance.ResourcePerformance</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>connectStart as long</t>
   </si>
@@ -43,9 +67,6 @@
   </si>
   <si>
     <t>loadEventEnd as long</t>
-  </si>
-  <si>
-    <t>Timestamp as DateTime</t>
   </si>
   <si>
     <t>name as string</t>
@@ -136,9 +157,8 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -156,24 +176,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J1" activeCellId="0" pane="topLeft" sqref="J:J"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J1" activeCellId="0" pane="topLeft" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5882352941177"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.878431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.2901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.2"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.93725490196078"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8196078431373"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -203,9 +222,6 @@
       </c>
       <c r="I1" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -224,39 +240,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G9" activeCellId="1" pane="topLeft" sqref="J:J G9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J12" activeCellId="0" pane="topLeft" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.756862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.643137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.878431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.93725490196078"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7882352941176"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.9725490196078"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="52.6823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
@@ -273,11 +287,8 @@
       <c r="I1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>14</v>
+      <c r="J1" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -288,5 +299,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/examples/javascript/svg/SVGNavigationTiming/SVGNavigationTiming/Design/PerformanceResourceTimingData2.xlsx
+++ b/examples/javascript/svg/SVGNavigationTiming/SVGNavigationTiming/Design/PerformanceResourceTimingData2.xlsx
@@ -21,7 +21,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="J1">
+    <comment authorId="0" ref="K1">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>connectStart as long</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>name as string</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
   <si>
     <t>entryType as string</t>
@@ -183,19 +186,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8196078431373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.278431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.6823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.0274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.9882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -240,23 +244,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J12" activeCellId="0" pane="topLeft" sqref="J12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7882352941176"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.9725490196078"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="52.6823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="18.9372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9882352941176"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.0823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.1921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.278431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="53.2156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -273,22 +278,25 @@
         <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>13</v>
+      <c r="K1" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
